--- a/analysis_output/regression_results.xlsx
+++ b/analysis_output/regression_results.xlsx
@@ -482,22 +482,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3285</v>
+        <v>0.3666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.532</v>
+        <v>0.6331</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5285</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9018</v>
+        <v>-0.786</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5588</v>
+        <v>1.5191</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0289</v>
+        <v>-0.0254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1049</v>
+        <v>0.1011</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2757</v>
+        <v>-0.251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7835</v>
+        <v>0.8025</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.238</v>
+        <v>-0.2266</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1801</v>
+        <v>0.1758</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -534,22 +534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0394</v>
+        <v>0.0264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1289</v>
+        <v>0.1232</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3056</v>
+        <v>0.2142</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7608</v>
+        <v>0.8309</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2175</v>
+        <v>-0.2188</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2963</v>
+        <v>0.2716</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -560,22 +560,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3695</v>
+        <v>0.3646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09660000000000001</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>3.8261</v>
+        <v>4.01</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1771</v>
+        <v>0.1836</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5455</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -590,22 +590,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4045</v>
+        <v>0.4022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1116</v>
+        <v>0.1059</v>
       </c>
       <c r="D6" t="n">
-        <v>3.6257</v>
+        <v>3.7972</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005</v>
+        <v>0.0003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1822</v>
+        <v>0.1914</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6268</v>
+        <v>0.6131</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0291</v>
+        <v>-0.031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1112</v>
+        <v>0.1018</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2615</v>
+        <v>-0.3046</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7945</v>
+        <v>0.7615</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2506</v>
+        <v>-0.2336</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1925</v>
+        <v>0.1716</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -646,22 +646,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1122</v>
+        <v>0.1112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.082</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3683</v>
+        <v>1.4201</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1754</v>
+        <v>0.1595</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0512</v>
+        <v>-0.0446</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2755</v>
+        <v>0.267</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0993</v>
+        <v>-0.09320000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0843</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.1782</v>
+        <v>-1.15</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2425</v>
+        <v>0.2536</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2673</v>
+        <v>-0.2546</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0687</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0186</v>
+        <v>0.0033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0809</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2296</v>
+        <v>0.0431</v>
       </c>
       <c r="E10" t="n">
-        <v>0.819</v>
+        <v>0.9657</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1427</v>
+        <v>-0.1495</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1798</v>
+        <v>0.1562</v>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -724,22 +724,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06950000000000001</v>
+        <v>-0.0345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2036</v>
+        <v>0.1926</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3415</v>
+        <v>-0.1793</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7337</v>
+        <v>0.8582</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4753</v>
+        <v>-0.4179</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3362</v>
+        <v>0.3488</v>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
